--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2306.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2306.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.854852085836292</v>
+        <v>0.8721416592597961</v>
       </c>
       <c r="B1">
-        <v>2.323336943160132</v>
+        <v>1.273996591567993</v>
       </c>
       <c r="C1">
-        <v>2.056483309710011</v>
+        <v>2.336717844009399</v>
       </c>
       <c r="D1">
-        <v>2.25330444881426</v>
+        <v>2.523666858673096</v>
       </c>
       <c r="E1">
-        <v>2.792002535987129</v>
+        <v>1.938113570213318</v>
       </c>
     </row>
   </sheetData>
